--- a/www/ig/nos/ValueSet-JDV-J126-SecteurActivite-ENREG.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J126-SecteurActivite-ENREG.xlsx
@@ -30,13 +30,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.1.6.1.212</t>
+    <t>urn:oid:1.2.250.1.213.1.6.1.212</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-26T12:00:00+01:00</t>
+    <t>2024-01-26T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/nos/ValueSet-JDV-J126-SecteurActivite-ENREG.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J126-SecteurActivite-ENREG.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="93">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T12:00:00+01:00</t>
+    <t>2024-07-26T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -276,7 +282,10 @@
     <t>Ordre professionnel de santé</t>
   </si>
   <si>
-    <t/>
+    <t>SA68</t>
+  </si>
+  <si>
+    <t>Services départementaux d'incendie et de secours</t>
   </si>
   <si>
     <t>System URI</t>
@@ -416,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -522,20 +531,28 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -545,7 +562,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -557,266 +574,274 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>89</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J126-SecteurActivite-ENREG.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J126-SecteurActivite-ENREG.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="90">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-26T12:00:00+01:00</t>
+    <t>2024-01-26T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,220 +72,211 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>ANS (https://esante.gouv.fr)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Table des Secteur d'activité des structures Siret uniquement utilisé par ENREG pour enregistrer les structures absentes des référentiels de l'ANS.</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>SA09</t>
+  </si>
+  <si>
+    <t>Exercice en société</t>
+  </si>
+  <si>
+    <t>SA10</t>
+  </si>
+  <si>
+    <t>Transporteur sanitaire</t>
+  </si>
+  <si>
+    <t>SA13</t>
+  </si>
+  <si>
+    <t>Prévention et soins en entreprise</t>
+  </si>
+  <si>
+    <t>SA14</t>
+  </si>
+  <si>
+    <t>Etablissements scolaires, universitaires et de formation hors champ FINESS</t>
+  </si>
+  <si>
+    <t>SA19</t>
+  </si>
+  <si>
+    <t>Etablissements FINESS de formation aux professions sanitaires et sociales</t>
+  </si>
+  <si>
+    <t>SA22</t>
+  </si>
+  <si>
+    <t>Recherche</t>
+  </si>
+  <si>
+    <t>SA23</t>
+  </si>
+  <si>
+    <t>Assurance privée</t>
+  </si>
+  <si>
+    <t>SA24</t>
+  </si>
+  <si>
+    <t>Organisme de sécurité sociale</t>
+  </si>
+  <si>
+    <t>SA26</t>
+  </si>
+  <si>
+    <t>Ministère ou Service déconcentré</t>
+  </si>
+  <si>
+    <t>SA27</t>
+  </si>
+  <si>
+    <t>Collectivité territoriale</t>
+  </si>
+  <si>
+    <t>SA28</t>
+  </si>
+  <si>
+    <t>Association ou organisme humanitaire</t>
+  </si>
+  <si>
+    <t>SA31</t>
+  </si>
+  <si>
+    <t>Répartition et Distribution de médicaments et dispositifs médicaux</t>
+  </si>
+  <si>
+    <t>SA32</t>
+  </si>
+  <si>
+    <t>Fabrication, Exploitation et Importation de médicaments et dispositifs médicaux</t>
+  </si>
+  <si>
+    <t>SA35</t>
+  </si>
+  <si>
+    <t>Para-pharmacie</t>
+  </si>
+  <si>
+    <t>SA42</t>
+  </si>
+  <si>
+    <t>Appareillage médical</t>
+  </si>
+  <si>
+    <t>SA43</t>
+  </si>
+  <si>
+    <t>Secteur non défini</t>
+  </si>
+  <si>
+    <t>SA44</t>
+  </si>
+  <si>
+    <t>Recrutement ou Gestion RH</t>
+  </si>
+  <si>
+    <t>SA45</t>
+  </si>
+  <si>
+    <t>Communication, Marketing, Consulting, Média</t>
+  </si>
+  <si>
+    <t>SA46</t>
+  </si>
+  <si>
+    <t>Fabrication, Exploitation, Importation, Répartition, Distribution médicaments et dispositifs médicaux</t>
+  </si>
+  <si>
+    <t>SA47</t>
+  </si>
+  <si>
+    <t>Incendie et secours</t>
+  </si>
+  <si>
+    <t>SA48</t>
+  </si>
+  <si>
+    <t>Entreprise industrielle et tertiaire hors industrie pharmaceutique</t>
+  </si>
+  <si>
+    <t>SA49</t>
+  </si>
+  <si>
+    <t>Entité Outre-Mer</t>
+  </si>
+  <si>
+    <t>SA50</t>
+  </si>
+  <si>
+    <t>Permanence des soins ambulatoires hors cabinet</t>
+  </si>
+  <si>
+    <t>SA51</t>
+  </si>
+  <si>
+    <t>Structure de coopération avec autorisation de soins</t>
+  </si>
+  <si>
+    <t>SA52</t>
+  </si>
+  <si>
+    <t>Maison de santé ou Pôle de santé</t>
+  </si>
+  <si>
+    <t>SA53</t>
+  </si>
+  <si>
+    <t>Siège administratif d'un établissement de santé</t>
+  </si>
+  <si>
+    <t>SA54</t>
+  </si>
+  <si>
+    <t>Centre de dépistage et de prévention</t>
+  </si>
+  <si>
+    <t>SA57</t>
+  </si>
+  <si>
+    <t>Structure de coopération avec mission de coordination de soins</t>
+  </si>
+  <si>
+    <t>SA58</t>
+  </si>
+  <si>
+    <t>Entreprise de taxis</t>
+  </si>
+  <si>
+    <t>SA62</t>
+  </si>
+  <si>
+    <t>Ordre professionnel de santé</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Table des Secteur d'activité des structures Siret uniquement utilisé par ENREG pour enregistrer les structures absentes des référentiels de l'ANS.</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>SA09</t>
-  </si>
-  <si>
-    <t>Exercice en société</t>
-  </si>
-  <si>
-    <t>SA10</t>
-  </si>
-  <si>
-    <t>Transporteur sanitaire</t>
-  </si>
-  <si>
-    <t>SA13</t>
-  </si>
-  <si>
-    <t>Prévention et soins en entreprise</t>
-  </si>
-  <si>
-    <t>SA14</t>
-  </si>
-  <si>
-    <t>Etablissements scolaires, universitaires et de formation hors champ FINESS</t>
-  </si>
-  <si>
-    <t>SA19</t>
-  </si>
-  <si>
-    <t>Etablissements FINESS de formation aux professions sanitaires et sociales</t>
-  </si>
-  <si>
-    <t>SA22</t>
-  </si>
-  <si>
-    <t>Recherche</t>
-  </si>
-  <si>
-    <t>SA23</t>
-  </si>
-  <si>
-    <t>Assurance privée</t>
-  </si>
-  <si>
-    <t>SA24</t>
-  </si>
-  <si>
-    <t>Organisme de sécurité sociale</t>
-  </si>
-  <si>
-    <t>SA26</t>
-  </si>
-  <si>
-    <t>Ministère ou Service déconcentré</t>
-  </si>
-  <si>
-    <t>SA27</t>
-  </si>
-  <si>
-    <t>Collectivité territoriale</t>
-  </si>
-  <si>
-    <t>SA28</t>
-  </si>
-  <si>
-    <t>Association ou organisme humanitaire</t>
-  </si>
-  <si>
-    <t>SA31</t>
-  </si>
-  <si>
-    <t>Répartition et Distribution de médicaments et dispositifs médicaux</t>
-  </si>
-  <si>
-    <t>SA32</t>
-  </si>
-  <si>
-    <t>Fabrication, Exploitation et Importation de médicaments et dispositifs médicaux</t>
-  </si>
-  <si>
-    <t>SA35</t>
-  </si>
-  <si>
-    <t>Para-pharmacie</t>
-  </si>
-  <si>
-    <t>SA42</t>
-  </si>
-  <si>
-    <t>Appareillage médical</t>
-  </si>
-  <si>
-    <t>SA43</t>
-  </si>
-  <si>
-    <t>Secteur non défini</t>
-  </si>
-  <si>
-    <t>SA44</t>
-  </si>
-  <si>
-    <t>Recrutement ou Gestion RH</t>
-  </si>
-  <si>
-    <t>SA45</t>
-  </si>
-  <si>
-    <t>Communication, Marketing, Consulting, Média</t>
-  </si>
-  <si>
-    <t>SA46</t>
-  </si>
-  <si>
-    <t>Fabrication, Exploitation, Importation, Répartition, Distribution médicaments et dispositifs médicaux</t>
-  </si>
-  <si>
-    <t>SA47</t>
-  </si>
-  <si>
-    <t>Incendie et secours</t>
-  </si>
-  <si>
-    <t>SA48</t>
-  </si>
-  <si>
-    <t>Entreprise industrielle et tertiaire hors industrie pharmaceutique</t>
-  </si>
-  <si>
-    <t>SA49</t>
-  </si>
-  <si>
-    <t>Entité Outre-Mer</t>
-  </si>
-  <si>
-    <t>SA50</t>
-  </si>
-  <si>
-    <t>Permanence des soins ambulatoires hors cabinet</t>
-  </si>
-  <si>
-    <t>SA51</t>
-  </si>
-  <si>
-    <t>Structure de coopération avec autorisation de soins</t>
-  </si>
-  <si>
-    <t>SA52</t>
-  </si>
-  <si>
-    <t>Maison de santé ou Pôle de santé</t>
-  </si>
-  <si>
-    <t>SA53</t>
-  </si>
-  <si>
-    <t>Siège administratif d'un établissement de santé</t>
-  </si>
-  <si>
-    <t>SA54</t>
-  </si>
-  <si>
-    <t>Centre de dépistage et de prévention</t>
-  </si>
-  <si>
-    <t>SA57</t>
-  </si>
-  <si>
-    <t>Structure de coopération avec mission de coordination de soins</t>
-  </si>
-  <si>
-    <t>SA58</t>
-  </si>
-  <si>
-    <t>Entreprise de taxis</t>
-  </si>
-  <si>
-    <t>SA62</t>
-  </si>
-  <si>
-    <t>Ordre professionnel de santé</t>
-  </si>
-  <si>
-    <t>SA68</t>
-  </si>
-  <si>
-    <t>Services départementaux d'incendie et de secours</t>
   </si>
   <si>
     <t>System URI</t>
@@ -425,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -531,28 +522,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -562,7 +545,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -574,274 +557,266 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J126-SecteurActivite-ENREG.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J126-SecteurActivite-ENREG.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -75,217 +75,214 @@
     <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
-    <t>Jurisdiction</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Table des Secteur d'activité des structures Siret uniquement utilisé par ENREG pour enregistrer les structures absentes des référentiels de l'ANS.</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>SA09</t>
+  </si>
+  <si>
+    <t>Exercice en société</t>
+  </si>
+  <si>
+    <t>SA10</t>
+  </si>
+  <si>
+    <t>Transporteur sanitaire</t>
+  </si>
+  <si>
+    <t>SA13</t>
+  </si>
+  <si>
+    <t>Prévention et soins en entreprise</t>
+  </si>
+  <si>
+    <t>SA14</t>
+  </si>
+  <si>
+    <t>Etablissements scolaires, universitaires et de formation hors champ FINESS</t>
+  </si>
+  <si>
+    <t>SA19</t>
+  </si>
+  <si>
+    <t>Etablissements FINESS de formation aux professions sanitaires et sociales</t>
+  </si>
+  <si>
+    <t>SA22</t>
+  </si>
+  <si>
+    <t>Recherche</t>
+  </si>
+  <si>
+    <t>SA23</t>
+  </si>
+  <si>
+    <t>Assurance privée</t>
+  </si>
+  <si>
+    <t>SA24</t>
+  </si>
+  <si>
+    <t>Organisme de sécurité sociale</t>
+  </si>
+  <si>
+    <t>SA26</t>
+  </si>
+  <si>
+    <t>Ministère ou Service déconcentré</t>
+  </si>
+  <si>
+    <t>SA27</t>
+  </si>
+  <si>
+    <t>Collectivité territoriale</t>
+  </si>
+  <si>
+    <t>SA28</t>
+  </si>
+  <si>
+    <t>Association ou organisme humanitaire</t>
+  </si>
+  <si>
+    <t>SA31</t>
+  </si>
+  <si>
+    <t>Répartition et Distribution de médicaments et dispositifs médicaux</t>
+  </si>
+  <si>
+    <t>SA32</t>
+  </si>
+  <si>
+    <t>Fabrication, Exploitation et Importation de médicaments et dispositifs médicaux</t>
+  </si>
+  <si>
+    <t>SA35</t>
+  </si>
+  <si>
+    <t>Para-pharmacie</t>
+  </si>
+  <si>
+    <t>SA42</t>
+  </si>
+  <si>
+    <t>Appareillage médical</t>
+  </si>
+  <si>
+    <t>SA43</t>
+  </si>
+  <si>
+    <t>Secteur non défini</t>
+  </si>
+  <si>
+    <t>SA44</t>
+  </si>
+  <si>
+    <t>Recrutement ou Gestion RH</t>
+  </si>
+  <si>
+    <t>SA45</t>
+  </si>
+  <si>
+    <t>Communication, Marketing, Consulting, Média</t>
+  </si>
+  <si>
+    <t>SA46</t>
+  </si>
+  <si>
+    <t>Fabrication, Exploitation, Importation, Répartition, Distribution médicaments et dispositifs médicaux</t>
+  </si>
+  <si>
+    <t>SA47</t>
+  </si>
+  <si>
+    <t>Incendie et secours</t>
+  </si>
+  <si>
+    <t>SA48</t>
+  </si>
+  <si>
+    <t>Entreprise industrielle et tertiaire hors industrie pharmaceutique</t>
+  </si>
+  <si>
+    <t>SA49</t>
+  </si>
+  <si>
+    <t>Entité Outre-Mer</t>
+  </si>
+  <si>
+    <t>SA50</t>
+  </si>
+  <si>
+    <t>Permanence des soins ambulatoires hors cabinet</t>
+  </si>
+  <si>
+    <t>SA51</t>
+  </si>
+  <si>
+    <t>Structure de coopération avec autorisation de soins</t>
+  </si>
+  <si>
+    <t>SA52</t>
+  </si>
+  <si>
+    <t>Maison de santé ou Pôle de santé</t>
+  </si>
+  <si>
+    <t>SA53</t>
+  </si>
+  <si>
+    <t>Siège administratif d'un établissement de santé</t>
+  </si>
+  <si>
+    <t>SA54</t>
+  </si>
+  <si>
+    <t>Centre de dépistage et de prévention</t>
+  </si>
+  <si>
+    <t>SA57</t>
+  </si>
+  <si>
+    <t>Structure de coopération avec mission de coordination de soins</t>
+  </si>
+  <si>
+    <t>SA58</t>
+  </si>
+  <si>
+    <t>Entreprise de taxis</t>
+  </si>
+  <si>
+    <t>SA62</t>
+  </si>
+  <si>
+    <t>Ordre professionnel de santé</t>
+  </si>
+  <si>
+    <t>SA68</t>
+  </si>
+  <si>
+    <t>Services départementaux d'incendie et de secours</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Table des Secteur d'activité des structures Siret uniquement utilisé par ENREG pour enregistrer les structures absentes des référentiels de l'ANS.</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>SA09</t>
-  </si>
-  <si>
-    <t>Exercice en société</t>
-  </si>
-  <si>
-    <t>SA10</t>
-  </si>
-  <si>
-    <t>Transporteur sanitaire</t>
-  </si>
-  <si>
-    <t>SA13</t>
-  </si>
-  <si>
-    <t>Prévention et soins en entreprise</t>
-  </si>
-  <si>
-    <t>SA14</t>
-  </si>
-  <si>
-    <t>Etablissements scolaires, universitaires et de formation hors champ FINESS</t>
-  </si>
-  <si>
-    <t>SA19</t>
-  </si>
-  <si>
-    <t>Etablissements FINESS de formation aux professions sanitaires et sociales</t>
-  </si>
-  <si>
-    <t>SA22</t>
-  </si>
-  <si>
-    <t>Recherche</t>
-  </si>
-  <si>
-    <t>SA23</t>
-  </si>
-  <si>
-    <t>Assurance privée</t>
-  </si>
-  <si>
-    <t>SA24</t>
-  </si>
-  <si>
-    <t>Organisme de sécurité sociale</t>
-  </si>
-  <si>
-    <t>SA26</t>
-  </si>
-  <si>
-    <t>Ministère ou Service déconcentré</t>
-  </si>
-  <si>
-    <t>SA27</t>
-  </si>
-  <si>
-    <t>Collectivité territoriale</t>
-  </si>
-  <si>
-    <t>SA28</t>
-  </si>
-  <si>
-    <t>Association ou organisme humanitaire</t>
-  </si>
-  <si>
-    <t>SA31</t>
-  </si>
-  <si>
-    <t>Répartition et Distribution de médicaments et dispositifs médicaux</t>
-  </si>
-  <si>
-    <t>SA32</t>
-  </si>
-  <si>
-    <t>Fabrication, Exploitation et Importation de médicaments et dispositifs médicaux</t>
-  </si>
-  <si>
-    <t>SA35</t>
-  </si>
-  <si>
-    <t>Para-pharmacie</t>
-  </si>
-  <si>
-    <t>SA42</t>
-  </si>
-  <si>
-    <t>Appareillage médical</t>
-  </si>
-  <si>
-    <t>SA43</t>
-  </si>
-  <si>
-    <t>Secteur non défini</t>
-  </si>
-  <si>
-    <t>SA44</t>
-  </si>
-  <si>
-    <t>Recrutement ou Gestion RH</t>
-  </si>
-  <si>
-    <t>SA45</t>
-  </si>
-  <si>
-    <t>Communication, Marketing, Consulting, Média</t>
-  </si>
-  <si>
-    <t>SA46</t>
-  </si>
-  <si>
-    <t>Fabrication, Exploitation, Importation, Répartition, Distribution médicaments et dispositifs médicaux</t>
-  </si>
-  <si>
-    <t>SA47</t>
-  </si>
-  <si>
-    <t>Incendie et secours</t>
-  </si>
-  <si>
-    <t>SA48</t>
-  </si>
-  <si>
-    <t>Entreprise industrielle et tertiaire hors industrie pharmaceutique</t>
-  </si>
-  <si>
-    <t>SA49</t>
-  </si>
-  <si>
-    <t>Entité Outre-Mer</t>
-  </si>
-  <si>
-    <t>SA50</t>
-  </si>
-  <si>
-    <t>Permanence des soins ambulatoires hors cabinet</t>
-  </si>
-  <si>
-    <t>SA51</t>
-  </si>
-  <si>
-    <t>Structure de coopération avec autorisation de soins</t>
-  </si>
-  <si>
-    <t>SA52</t>
-  </si>
-  <si>
-    <t>Maison de santé ou Pôle de santé</t>
-  </si>
-  <si>
-    <t>SA53</t>
-  </si>
-  <si>
-    <t>Siège administratif d'un établissement de santé</t>
-  </si>
-  <si>
-    <t>SA54</t>
-  </si>
-  <si>
-    <t>Centre de dépistage et de prévention</t>
-  </si>
-  <si>
-    <t>SA57</t>
-  </si>
-  <si>
-    <t>Structure de coopération avec mission de coordination de soins</t>
-  </si>
-  <si>
-    <t>SA58</t>
-  </si>
-  <si>
-    <t>Entreprise de taxis</t>
-  </si>
-  <si>
-    <t>SA62</t>
-  </si>
-  <si>
-    <t>Ordre professionnel de santé</t>
-  </si>
-  <si>
-    <t>SA68</t>
-  </si>
-  <si>
-    <t>Services départementaux d'incendie et de secours</t>
   </si>
   <si>
     <t>System URI</t>
@@ -425,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -531,28 +528,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -574,274 +563,274 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J126-SecteurActivite-ENREG.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J126-SecteurActivite-ENREG.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
